--- a/catatan_prakom.xlsx
+++ b/catatan_prakom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="November" sheetId="8" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="235">
   <si>
     <t>No</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>dokumen</t>
+  </si>
+  <si>
+    <t>- Membuat SOP Pekerjaan IT, SOP BACKUP, SOP INSTALASI JARINGAN, SOP PERBAIKAN DAN PERAWATAN</t>
+  </si>
+  <si>
+    <t>SOP</t>
   </si>
   <si>
     <t>Pelatihan MS Office via ZOOM dari Nurul Fikri</t>
@@ -727,10 +733,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -764,8 +770,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,7 +785,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -786,17 +792,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,7 +816,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -825,23 +837,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,10 +862,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -885,13 +899,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -900,9 +907,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,13 +929,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,13 +1007,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,73 +1025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,49 +1037,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,13 +1061,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,21 +1138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1165,7 +1156,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1195,11 +1206,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1218,164 +1235,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1793,7 +1799,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1940,19 +1946,24 @@
     <row r="13" ht="30" spans="1:4">
       <c r="A13" s="2"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" ht="30" spans="1:4">
       <c r="A14" s="9"/>
       <c r="B14" s="12">
-        <v>44517</v>
-      </c>
-      <c r="D14" s="9"/>
+        <v>44518</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="9"/>
@@ -2205,10 +2216,10 @@
         <v>44470</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2219,7 +2230,7 @@
         <v>44476</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>9</v>
@@ -2229,17 +2240,17 @@
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="9"/>
       <c r="B5" s="12"/>
       <c r="C5" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>7</v>
@@ -2253,17 +2264,17 @@
         <v>44480</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2"/>
       <c r="B7" s="12"/>
       <c r="C7" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -2271,7 +2282,7 @@
       <c r="A8" s="9"/>
       <c r="B8" s="12"/>
       <c r="C8" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>7</v>
@@ -2285,7 +2296,7 @@
         <v>44481</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>7</v>
@@ -2299,17 +2310,17 @@
         <v>44482</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="12"/>
       <c r="C11" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -2317,7 +2328,7 @@
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -2325,17 +2336,17 @@
       <c r="A13" s="2"/>
       <c r="B13" s="12"/>
       <c r="C13" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -2343,7 +2354,7 @@
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -2351,7 +2362,7 @@
       <c r="A16" s="2"/>
       <c r="B16" s="12"/>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -2359,7 +2370,7 @@
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -2371,20 +2382,20 @@
         <v>44483</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2395,7 +2406,7 @@
         <v>44484</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -2403,10 +2414,10 @@
       <c r="A21" s="2"/>
       <c r="B21" s="12"/>
       <c r="C21" s="17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2417,20 +2428,20 @@
         <v>44487</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="30" spans="1:4">
@@ -2441,7 +2452,7 @@
         <v>44488</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>7</v>
@@ -2488,7 +2499,7 @@
         <v>44491</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>7</v>
@@ -2502,48 +2513,48 @@
         <v>44494</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2"/>
       <c r="B32" s="12"/>
       <c r="C32" s="17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="9"/>
       <c r="B33" s="12"/>
       <c r="C33" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="9"/>
       <c r="B34" s="12"/>
       <c r="C34" s="17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="3:4">
       <c r="C35" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="36" ht="30" spans="1:4">
@@ -2554,20 +2565,20 @@
         <v>44495</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="9"/>
       <c r="B37" s="7"/>
       <c r="C37" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" ht="30" spans="1:4">
@@ -2578,23 +2589,23 @@
         <v>44496</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="3:4">
       <c r="C39" s="17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="3:4">
       <c r="C40" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>7</v>
@@ -2606,22 +2617,22 @@
         <v>44498</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="3:4">
       <c r="C42" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D42" s="9"/>
     </row>
     <row r="43" ht="45" spans="2:4">
       <c r="B43" s="3"/>
       <c r="C43" s="16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>5</v>
@@ -2729,7 +2740,7 @@
         <v>44440</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>9</v>
@@ -2738,19 +2749,19 @@
     <row r="3" spans="1:4">
       <c r="A3" s="9"/>
       <c r="C3" s="17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9"/>
       <c r="C4" s="17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2761,16 +2772,16 @@
         <v>44441</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="9"/>
       <c r="C6" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>7</v>
@@ -2780,10 +2791,10 @@
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2794,7 +2805,7 @@
         <v>44442</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>13</v>
@@ -2804,7 +2815,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
       <c r="C9" s="18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>7</v>
@@ -2813,17 +2824,17 @@
     <row r="10" spans="1:4">
       <c r="A10" s="9"/>
       <c r="C10" s="17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>13</v>
@@ -2832,7 +2843,7 @@
     <row r="12" ht="30" spans="1:4">
       <c r="A12" s="9"/>
       <c r="C12" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>13</v>
@@ -2846,7 +2857,7 @@
         <v>44445</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>9</v>
@@ -2855,7 +2866,7 @@
     <row r="14" spans="1:4">
       <c r="A14" s="9"/>
       <c r="C14" s="17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>25</v>
@@ -2864,29 +2875,29 @@
     <row r="15" ht="30" spans="1:4">
       <c r="A15" s="9"/>
       <c r="C15" s="16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" ht="30" spans="1:4">
       <c r="A17" s="9"/>
       <c r="C17" s="16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2897,7 +2908,7 @@
         <v>44446</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>7</v>
@@ -2906,20 +2917,20 @@
     <row r="19" spans="1:4">
       <c r="A19" s="9"/>
       <c r="C19" s="16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" ht="30" spans="1:4">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2930,7 +2941,7 @@
         <v>44448</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>9</v>
@@ -2939,19 +2950,19 @@
     <row r="22" spans="1:4">
       <c r="A22" s="9"/>
       <c r="C22" s="17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" ht="30" spans="1:4">
       <c r="A23" s="9"/>
       <c r="C23" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2959,10 +2970,10 @@
         <v>7</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>9</v>
@@ -2971,20 +2982,20 @@
     <row r="25" spans="2:4">
       <c r="B25" s="9"/>
       <c r="C25" s="17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2"/>
       <c r="B26" s="11"/>
       <c r="C26" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2995,7 +3006,7 @@
         <v>44452</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" s="9"/>
     </row>
@@ -3003,19 +3014,19 @@
       <c r="A28" s="2"/>
       <c r="B28" s="11"/>
       <c r="C28" s="16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="45" spans="2:4">
       <c r="B29" s="9"/>
       <c r="C29" s="16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -3026,19 +3037,19 @@
         <v>44454</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" ht="30" spans="2:4">
       <c r="B31" s="9"/>
       <c r="C31" s="16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3049,10 +3060,10 @@
         <v>44455</v>
       </c>
       <c r="C32" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3063,10 +3074,10 @@
         <v>44456</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -3077,7 +3088,7 @@
         <v>44459</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>25</v>
@@ -3085,7 +3096,7 @@
     </row>
     <row r="35" spans="3:4">
       <c r="C35" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>25</v>
@@ -3093,10 +3104,10 @@
     </row>
     <row r="36" ht="30" spans="3:4">
       <c r="C36" s="16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="30" spans="1:4">
@@ -3107,10 +3118,10 @@
         <v>44460</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -3121,7 +3132,7 @@
         <v>44461</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>9</v>
@@ -3129,18 +3140,18 @@
     </row>
     <row r="39" spans="3:4">
       <c r="C39" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" ht="30" spans="3:4">
       <c r="C40" s="16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -3151,7 +3162,7 @@
         <v>44463</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>9</v>
@@ -3159,16 +3170,16 @@
     </row>
     <row r="42" spans="3:4">
       <c r="C42" s="16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="B43" s="3"/>
       <c r="C43" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>25</v>
@@ -3176,7 +3187,7 @@
     </row>
     <row r="44" spans="3:4">
       <c r="C44" s="17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>25</v>
@@ -3190,15 +3201,15 @@
         <v>44466</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="3:4">
       <c r="C46" s="16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D46" s="9" t="s">
         <v>25</v>
@@ -3206,7 +3217,7 @@
     </row>
     <row r="47" spans="3:4">
       <c r="C47" s="16" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>25</v>
@@ -3215,10 +3226,10 @@
     <row r="48" spans="2:4">
       <c r="B48" s="3"/>
       <c r="C48" s="16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -3229,10 +3240,10 @@
         <v>44467</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3243,16 +3254,16 @@
         <v>44468</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="10"/>
       <c r="C51" s="16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -3263,10 +3274,10 @@
         <v>44469</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="2:3">
@@ -3331,7 +3342,7 @@
         <v>44410</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -3339,23 +3350,23 @@
     </row>
     <row r="3" spans="3:4">
       <c r="C3" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -3363,10 +3374,10 @@
     </row>
     <row r="6" ht="30" spans="3:4">
       <c r="C6" s="16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" ht="30" spans="1:4">
@@ -3377,15 +3388,15 @@
         <v>44411</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -3399,7 +3410,7 @@
         <v>44412</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -3407,7 +3418,7 @@
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -3421,7 +3432,7 @@
         <v>44413</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -3429,7 +3440,7 @@
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -3443,15 +3454,15 @@
         <v>44414</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" s="17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -3459,7 +3470,7 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3470,7 +3481,7 @@
         <v>44417</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -3478,7 +3489,7 @@
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -3486,18 +3497,18 @@
     </row>
     <row r="18" ht="30" spans="3:4">
       <c r="C18" s="16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" ht="30" spans="3:4">
       <c r="C19" s="16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3508,7 +3519,7 @@
         <v>44418</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
@@ -3522,23 +3533,23 @@
         <v>44420</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -3546,7 +3557,7 @@
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -3554,10 +3565,10 @@
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -3568,7 +3579,7 @@
         <v>44421</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -3576,10 +3587,10 @@
     </row>
     <row r="27" spans="3:4">
       <c r="C27" s="17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -3590,7 +3601,7 @@
         <v>44427</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -3598,7 +3609,7 @@
     </row>
     <row r="29" spans="3:4">
       <c r="C29" s="17" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -3606,7 +3617,7 @@
     </row>
     <row r="30" spans="3:4">
       <c r="C30" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
@@ -3614,18 +3625,18 @@
     </row>
     <row r="31" spans="3:4">
       <c r="C31" s="17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="3:4">
       <c r="C32" s="17" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3636,7 +3647,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -3644,7 +3655,7 @@
     </row>
     <row r="34" spans="3:4">
       <c r="C34" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -3652,15 +3663,15 @@
     </row>
     <row r="35" ht="30" spans="3:4">
       <c r="C35" s="16" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="3:4">
       <c r="C36" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -3668,7 +3679,7 @@
     </row>
     <row r="37" spans="3:4">
       <c r="C37" s="17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -3676,10 +3687,10 @@
     </row>
     <row r="38" ht="30" spans="3:4">
       <c r="C38" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -3690,7 +3701,7 @@
         <v>44432</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -3698,7 +3709,7 @@
     </row>
     <row r="40" spans="3:4">
       <c r="C40" s="17" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D40" t="s">
         <v>25</v>
@@ -3706,7 +3717,7 @@
     </row>
     <row r="41" spans="3:4">
       <c r="C41" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -3714,15 +3725,15 @@
     </row>
     <row r="42" ht="45" spans="3:4">
       <c r="C42" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="3:4">
       <c r="C43" s="16" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
@@ -3730,10 +3741,10 @@
     </row>
     <row r="44" spans="3:4">
       <c r="C44" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D44" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -3744,7 +3755,7 @@
         <v>44433</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45" t="s">
         <v>9</v>
@@ -3752,15 +3763,15 @@
     </row>
     <row r="46" spans="3:4">
       <c r="C46" s="17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" ht="45" spans="3:4">
       <c r="C47" s="16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
@@ -3768,7 +3779,7 @@
     </row>
     <row r="48" ht="30" spans="3:4">
       <c r="C48" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
@@ -3776,7 +3787,7 @@
     </row>
     <row r="49" spans="3:4">
       <c r="C49" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -3790,7 +3801,7 @@
         <v>44434</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
@@ -3798,15 +3809,15 @@
     </row>
     <row r="51" spans="3:4">
       <c r="C51" s="17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="3:4">
       <c r="C52" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
@@ -3814,7 +3825,7 @@
     </row>
     <row r="53" ht="30" spans="3:4">
       <c r="C53" s="16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
@@ -3822,7 +3833,7 @@
     </row>
     <row r="54" ht="30" spans="3:4">
       <c r="C54" s="16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -3836,15 +3847,15 @@
         <v>44435</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="3:4">
       <c r="C56" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D56" t="s">
         <v>25</v>
@@ -3852,7 +3863,7 @@
     </row>
     <row r="57" spans="3:4">
       <c r="C57" s="17" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -3866,26 +3877,26 @@
         <v>44438</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="3:4">
       <c r="C59" s="17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="3:4">
       <c r="C60" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -3896,7 +3907,7 @@
         <v>44439</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
@@ -3904,7 +3915,7 @@
     </row>
     <row r="62" spans="3:4">
       <c r="C62" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D62" t="s">
         <v>25</v>
@@ -3912,10 +3923,10 @@
     </row>
     <row r="63" ht="30" spans="3:4">
       <c r="C63" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -3960,42 +3971,42 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="3:4">
       <c r="C3" s="17" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
       <c r="C4" s="16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="3:4">
       <c r="C5" s="17" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="3:4">
       <c r="C6" s="17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -4006,10 +4017,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -4017,18 +4028,18 @@
     </row>
     <row r="8" spans="3:4">
       <c r="C8" s="17" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="3:4">
       <c r="C9" s="17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4036,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -4047,7 +4058,7 @@
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="17" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D11" t="s">
         <v>25</v>
@@ -4055,31 +4066,31 @@
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="17" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="3:4">
       <c r="C14" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -4087,7 +4098,7 @@
     </row>
     <row r="16" spans="3:4">
       <c r="C16" s="17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
         <v>25</v>
@@ -4095,7 +4106,7 @@
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
@@ -4106,26 +4117,26 @@
         <v>4</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="3:4">
       <c r="C19" s="17" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="3:4">
       <c r="C20" s="17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -4133,10 +4144,10 @@
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4144,10 +4155,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
         <v>25</v>
@@ -4155,7 +4166,7 @@
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="17" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -4163,18 +4174,18 @@
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="17" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4185,23 +4196,23 @@
         <v>44405</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="3:4">
       <c r="C27" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="3:4">
       <c r="C28" s="17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
@@ -4209,7 +4220,7 @@
     </row>
     <row r="29" spans="3:4">
       <c r="C29" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -4217,7 +4228,7 @@
     </row>
     <row r="30" spans="3:4">
       <c r="C30" s="17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -4225,10 +4236,10 @@
     </row>
     <row r="31" spans="3:4">
       <c r="C31" s="17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -4274,7 +4285,7 @@
         <v>44372</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -4324,7 +4335,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -4332,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -4358,7 +4369,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
